--- a/data/trans_orig/P36B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>106315</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86966</v>
+        <v>86602</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124535</v>
+        <v>123143</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2534560666990007</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2073272515254256</v>
+        <v>0.2064587742509679</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2968906614350555</v>
+        <v>0.2935720049285223</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>103</v>
@@ -762,19 +762,19 @@
         <v>98782</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83452</v>
+        <v>81317</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115672</v>
+        <v>115535</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2502331208270051</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2113987653538038</v>
+        <v>0.2059909420767229</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2930184502971417</v>
+        <v>0.2926712740660246</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>202</v>
@@ -783,19 +783,19 @@
         <v>205097</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>179518</v>
+        <v>181201</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>228728</v>
+        <v>229140</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2518934863925789</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2204775886875719</v>
+        <v>0.2225449464210046</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2809164968970391</v>
+        <v>0.2814216904091075</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>20477</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11569</v>
+        <v>12820</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30948</v>
+        <v>31483</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04881604726378574</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02757952472640019</v>
+        <v>0.03056229611732188</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07378029963956</v>
+        <v>0.07505454923918767</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -833,19 +833,19 @@
         <v>15978</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8761</v>
+        <v>9523</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25334</v>
+        <v>25812</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04047539206281563</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02219219891367064</v>
+        <v>0.02412254349913243</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0641765604081757</v>
+        <v>0.06538773741250874</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -854,19 +854,19 @@
         <v>36455</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24896</v>
+        <v>24784</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49578</v>
+        <v>49756</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04477224880197014</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03057668833567368</v>
+        <v>0.03043942255700211</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06089045808151324</v>
+        <v>0.06110900410392484</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>25796</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17526</v>
+        <v>16815</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38925</v>
+        <v>37500</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06149697657159185</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04178161730138179</v>
+        <v>0.04008737965414207</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09279715305076054</v>
+        <v>0.08939889387678712</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -904,19 +904,19 @@
         <v>13473</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7544</v>
+        <v>7600</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21396</v>
+        <v>22232</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03412927761759652</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01911000782851704</v>
+        <v>0.0192517668459317</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05420019141943629</v>
+        <v>0.05631728624556506</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -925,19 +925,19 @@
         <v>39269</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27403</v>
+        <v>28141</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>52858</v>
+        <v>51949</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0482282996790707</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03365536887287416</v>
+        <v>0.03456227542657201</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06491894944652599</v>
+        <v>0.06380229463349529</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>19424</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12084</v>
+        <v>12307</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28504</v>
+        <v>30787</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04630780021785409</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02880929266817328</v>
+        <v>0.02933921014755268</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06795468817652298</v>
+        <v>0.07339553898664733</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -975,19 +975,19 @@
         <v>17178</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10445</v>
+        <v>10408</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26538</v>
+        <v>26364</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04351483829336815</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02645940695425893</v>
+        <v>0.02636631745663465</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06722488581678542</v>
+        <v>0.06678499644240139</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -996,19 +996,19 @@
         <v>36602</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26839</v>
+        <v>26278</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51446</v>
+        <v>50578</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04495368895656707</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03296318618261469</v>
+        <v>0.03227324601931642</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06318401718302699</v>
+        <v>0.06211821456354407</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>247451</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>227053</v>
+        <v>225613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>268821</v>
+        <v>267449</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5899231092477676</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5412944622283916</v>
+        <v>0.5378604960318057</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6408699214178327</v>
+        <v>0.6375994380523597</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>253</v>
@@ -1046,19 +1046,19 @@
         <v>249348</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>231099</v>
+        <v>230194</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>267598</v>
+        <v>268296</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6316473711992147</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5854185623684511</v>
+        <v>0.5831253419423056</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6778763455003413</v>
+        <v>0.6796438705741579</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>486</v>
@@ -1067,19 +1067,19 @@
         <v>496799</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>469394</v>
+        <v>468798</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>523183</v>
+        <v>523585</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6101522761698132</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5764939594415246</v>
+        <v>0.5757622549781793</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6425555318100797</v>
+        <v>0.6430494759078583</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>96025</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79042</v>
+        <v>78444</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115278</v>
+        <v>115010</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1628791966950465</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1340724011070915</v>
+        <v>0.1330578191841227</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1955379341443553</v>
+        <v>0.1950820012680568</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -1192,19 +1192,19 @@
         <v>89017</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72314</v>
+        <v>72150</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105562</v>
+        <v>105762</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1587872377328359</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1289912334105612</v>
+        <v>0.1287003246641775</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.188299416301926</v>
+        <v>0.1886556309826897</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>184</v>
@@ -1213,19 +1213,19 @@
         <v>185042</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161681</v>
+        <v>162320</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>210565</v>
+        <v>213001</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1608846924306706</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1405737867388932</v>
+        <v>0.1411292568775117</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1830756326373983</v>
+        <v>0.1851940234050932</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>9798</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4863</v>
+        <v>4936</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17490</v>
+        <v>17078</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01661981684209598</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008248230961990269</v>
+        <v>0.008372882930164223</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02966657419507762</v>
+        <v>0.02896791303256371</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1263,19 +1263,19 @@
         <v>11104</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5619</v>
+        <v>5680</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18405</v>
+        <v>18466</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01980666848645134</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01002304653218225</v>
+        <v>0.01013204968050978</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03283053351964556</v>
+        <v>0.03293954204312638</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -1284,19 +1284,19 @@
         <v>20902</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13222</v>
+        <v>13538</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30195</v>
+        <v>32371</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01817315333772067</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01149595898713559</v>
+        <v>0.01177071363655766</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02625260128695879</v>
+        <v>0.02814456005897019</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>14139</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8758</v>
+        <v>7374</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23492</v>
+        <v>22994</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02398333454404417</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01485565822251155</v>
+        <v>0.01250753115377233</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03984707427322835</v>
+        <v>0.03900225139984057</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -1334,19 +1334,19 @@
         <v>15880</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9244</v>
+        <v>9298</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25236</v>
+        <v>24530</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0283260123486907</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01648872195479834</v>
+        <v>0.01658574994922671</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04501622814965814</v>
+        <v>0.04375530209301017</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>30</v>
@@ -1355,19 +1355,19 @@
         <v>30019</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20934</v>
+        <v>21451</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42044</v>
+        <v>42295</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02610004428628925</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01820102817492492</v>
+        <v>0.01865085083737178</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03655553510851422</v>
+        <v>0.03677322391246385</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>28131</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19319</v>
+        <v>19039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41260</v>
+        <v>39812</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04771708240750814</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03276903090914762</v>
+        <v>0.03229440485558228</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06998541391440043</v>
+        <v>0.067529247661877</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1405,19 +1405,19 @@
         <v>12465</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6597</v>
+        <v>6706</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19797</v>
+        <v>21342</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02223474830372067</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01176722047760858</v>
+        <v>0.0119613969808487</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03531318738865621</v>
+        <v>0.03806927321606951</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -1426,19 +1426,19 @@
         <v>40596</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29968</v>
+        <v>29134</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54828</v>
+        <v>53653</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03529647298653793</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02605571859413312</v>
+        <v>0.02533085755698701</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04767059126128937</v>
+        <v>0.04664866032250364</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>441452</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>418772</v>
+        <v>420178</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>460724</v>
+        <v>463120</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7488005695113052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.710330620286439</v>
+        <v>0.7127159121901399</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7814913084084161</v>
+        <v>0.7855542518515002</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>444</v>
@@ -1476,19 +1476,19 @@
         <v>432142</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>411669</v>
+        <v>411966</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>452577</v>
+        <v>449593</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7708453331283014</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7343267591532985</v>
+        <v>0.7348551641653389</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8072959550148351</v>
+        <v>0.8019746011428641</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>866</v>
@@ -1497,19 +1497,19 @@
         <v>873594</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>847240</v>
+        <v>844680</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>902873</v>
+        <v>903043</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7595456369587816</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7366324195061279</v>
+        <v>0.7344067169646366</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7850023605945352</v>
+        <v>0.7851504731612814</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>81403</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63845</v>
+        <v>65669</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99543</v>
+        <v>100416</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1216614981097264</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09541933692533715</v>
+        <v>0.09814580109991175</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1487724976106267</v>
+        <v>0.1500763196792397</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -1622,19 +1622,19 @@
         <v>55622</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42113</v>
+        <v>43976</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69822</v>
+        <v>71692</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08459589622452458</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06404899249778011</v>
+        <v>0.06688273604704016</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1061929339587381</v>
+        <v>0.109035718735021</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>133</v>
@@ -1643,19 +1643,19 @@
         <v>137026</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>116965</v>
+        <v>116195</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>160238</v>
+        <v>161432</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.103290612476508</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0881690954967364</v>
+        <v>0.08758823666757126</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1207881479129412</v>
+        <v>0.1216878947863245</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>7317</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2863</v>
+        <v>2996</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15018</v>
+        <v>15322</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01093556330252436</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004278392604585948</v>
+        <v>0.004478293017625393</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02244579835360699</v>
+        <v>0.0228989756566602</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1693,19 +1693,19 @@
         <v>4123</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10137</v>
+        <v>10523</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006269942438588835</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001612958286472872</v>
+        <v>0.001599892292560579</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01541738003540895</v>
+        <v>0.01600452490480702</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1714,19 +1714,19 @@
         <v>11439</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5667</v>
+        <v>6145</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19413</v>
+        <v>19678</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008623133908695015</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004271699497153806</v>
+        <v>0.004632287748349328</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01463326899555212</v>
+        <v>0.01483375062277292</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>15043</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8552</v>
+        <v>8499</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24915</v>
+        <v>24465</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02248228072691643</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.012781642977869</v>
+        <v>0.01270176891271944</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03723696125663524</v>
+        <v>0.03656418382833745</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1764,19 +1764,19 @@
         <v>5564</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1900</v>
+        <v>1919</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12058</v>
+        <v>11976</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.008461644291565004</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.002889264660603796</v>
+        <v>0.002918456895125328</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0183395347103362</v>
+        <v>0.01821355436380645</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -1785,19 +1785,19 @@
         <v>20606</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12756</v>
+        <v>12902</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31177</v>
+        <v>31207</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01553320947598904</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.009615796389817292</v>
+        <v>0.009725422744557621</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02350112251019503</v>
+        <v>0.02352366042333112</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>11280</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5819</v>
+        <v>5930</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20395</v>
+        <v>20768</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01685864878323222</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008697009526719909</v>
+        <v>0.008862802205361996</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03048209940171866</v>
+        <v>0.03103904035359762</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1835,19 +1835,19 @@
         <v>14053</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7930</v>
+        <v>7917</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24667</v>
+        <v>23671</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02137367880381111</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0120605837414315</v>
+        <v>0.01204170771761459</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03751528937234082</v>
+        <v>0.0360018387353605</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -1856,19 +1856,19 @@
         <v>25333</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16528</v>
+        <v>16285</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37800</v>
+        <v>37691</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01909644058803002</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01245853510853859</v>
+        <v>0.01227556734760132</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02849401889399329</v>
+        <v>0.0284113020375596</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>554054</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>533364</v>
+        <v>532419</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>574061</v>
+        <v>574066</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8280620090776005</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7971401801863992</v>
+        <v>0.7957269568075733</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8579643850277058</v>
+        <v>0.8579715279942833</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>581</v>
@@ -1906,19 +1906,19 @@
         <v>578144</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>562006</v>
+        <v>559853</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>593882</v>
+        <v>593755</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8792988382415104</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.854753462641065</v>
+        <v>0.8514791762672765</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9032336310207146</v>
+        <v>0.9030404555435484</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1111</v>
@@ -1927,19 +1927,19 @@
         <v>1132198</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1107701</v>
+        <v>1105032</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1158303</v>
+        <v>1156119</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8534566035507779</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8349904480180078</v>
+        <v>0.8329785219514173</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8731343858587923</v>
+        <v>0.8714883198214519</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>53958</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41881</v>
+        <v>41693</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71362</v>
+        <v>71748</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08351993734149096</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06482669009907142</v>
+        <v>0.06453514433996825</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1104586127168949</v>
+        <v>0.1110562530544764</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -2052,19 +2052,19 @@
         <v>46284</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34060</v>
+        <v>34155</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62040</v>
+        <v>60418</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07143013076887994</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05256437068996983</v>
+        <v>0.0527114085627051</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09574604287197654</v>
+        <v>0.09324237526427112</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>93</v>
@@ -2073,19 +2073,19 @@
         <v>100242</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>82346</v>
+        <v>82921</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>121196</v>
+        <v>121688</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07746608110865394</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06363586568708281</v>
+        <v>0.06408062396432282</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09365928434590721</v>
+        <v>0.09403948445228215</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>9359</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4149</v>
+        <v>4978</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17095</v>
+        <v>17979</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01448644652608681</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006422810565801589</v>
+        <v>0.007705088717069975</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02646058582915008</v>
+        <v>0.02782895753707197</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2123,19 +2123,19 @@
         <v>8649</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3986</v>
+        <v>3911</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16988</v>
+        <v>16349</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01334763474197736</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00615082921108368</v>
+        <v>0.006036488611671949</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02621738726755833</v>
+        <v>0.025231196403622</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>17</v>
@@ -2144,19 +2144,19 @@
         <v>18008</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11202</v>
+        <v>10766</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28648</v>
+        <v>29403</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0139161973020109</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00865655325898871</v>
+        <v>0.008320029023316274</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02213895757193818</v>
+        <v>0.022722444711112</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>6048</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2906</v>
+        <v>2035</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13089</v>
+        <v>12102</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.009361305283776728</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004498872763942772</v>
+        <v>0.003149736491297149</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02025953769068323</v>
+        <v>0.01873250133311535</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -2194,19 +2194,19 @@
         <v>6949</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2982</v>
+        <v>2900</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13562</v>
+        <v>13629</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01072365959299945</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004602252747202135</v>
+        <v>0.004475110000237944</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02092963963931982</v>
+        <v>0.02103295293551822</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -2215,19 +2215,19 @@
         <v>12996</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7050</v>
+        <v>7015</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21193</v>
+        <v>21842</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01004349131187289</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005448535133936815</v>
+        <v>0.005420822692513319</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01637777888057982</v>
+        <v>0.01687933321532901</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>7718</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3038</v>
+        <v>3420</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15059</v>
+        <v>15936</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01194576717974773</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004702957716862883</v>
+        <v>0.005293750414198583</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02330877413563512</v>
+        <v>0.02466615242757143</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2265,19 +2265,19 @@
         <v>9433</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5071</v>
+        <v>5050</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16679</v>
+        <v>16760</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01455855251183354</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007826345888526437</v>
+        <v>0.007794307013407189</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0257407787535741</v>
+        <v>0.02586500292452509</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -2286,19 +2286,19 @@
         <v>17151</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10200</v>
+        <v>9856</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27230</v>
+        <v>26444</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0132540947094492</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007882726175988607</v>
+        <v>0.007616429144672912</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02104311400028581</v>
+        <v>0.02043558832157421</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>568966</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>549710</v>
+        <v>549350</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>583071</v>
+        <v>584104</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8806865436688978</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8508815213569543</v>
+        <v>0.8503230781026442</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.902519560967064</v>
+        <v>0.9041193154533846</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>533</v>
@@ -2336,19 +2336,19 @@
         <v>576650</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>560090</v>
+        <v>561162</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>591839</v>
+        <v>591519</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8899400223843097</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8643835707898737</v>
+        <v>0.8660379797640798</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9133806874345476</v>
+        <v>0.912886534582914</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1044</v>
@@ -2357,19 +2357,19 @@
         <v>1145616</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1120747</v>
+        <v>1120593</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1166558</v>
+        <v>1169390</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.885320135568013</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8661020926630313</v>
+        <v>0.8659825273290023</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9015042822647491</v>
+        <v>0.9036923028114868</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>51270</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37702</v>
+        <v>38289</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>66658</v>
+        <v>67844</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1072774438574582</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07888862574366969</v>
+        <v>0.08011542876025271</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1394768541897109</v>
+        <v>0.1419573642349317</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>41</v>
@@ -2482,19 +2482,19 @@
         <v>46581</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>34180</v>
+        <v>33903</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>62751</v>
+        <v>63057</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09375304547200325</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06879308247728017</v>
+        <v>0.06823531083039158</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1262985322770629</v>
+        <v>0.126913999171921</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>85</v>
@@ -2503,19 +2503,19 @@
         <v>97851</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>79589</v>
+        <v>78639</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>118892</v>
+        <v>119300</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1003839156264595</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08164875346136226</v>
+        <v>0.08067500335918491</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1219695505980655</v>
+        <v>0.1223882243304015</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>6805</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2923</v>
+        <v>2307</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14069</v>
+        <v>13897</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01423850336803541</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006116847423928787</v>
+        <v>0.004827738944699797</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02943847284489078</v>
+        <v>0.02907914505079016</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7964</v>
+        <v>7556</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004356779897821022</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01602834296663802</v>
+        <v>0.01520835129178844</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -2574,19 +2574,19 @@
         <v>8969</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4202</v>
+        <v>4395</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>17889</v>
+        <v>16882</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009201684888471411</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004311001001844175</v>
+        <v>0.004508436779052766</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01835216394644672</v>
+        <v>0.01731903364610553</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>8917</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4214</v>
+        <v>3456</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18086</v>
+        <v>17564</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01865720103501719</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.008817321329892488</v>
+        <v>0.007230905946447252</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03784306228766932</v>
+        <v>0.03675041020586848</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -2624,19 +2624,19 @@
         <v>4287</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1093</v>
+        <v>1068</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11798</v>
+        <v>10375</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.008629028790531455</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002200412809626924</v>
+        <v>0.002150181078899591</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02374533702767692</v>
+        <v>0.02088178210472174</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>11</v>
@@ -2645,19 +2645,19 @@
         <v>13204</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6493</v>
+        <v>7219</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>22952</v>
+        <v>24109</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01354573607351279</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.006660854123703071</v>
+        <v>0.007405399992386341</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02354618588113984</v>
+        <v>0.02473296446337821</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>9565</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4387</v>
+        <v>4327</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18560</v>
+        <v>19020</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02001413808330889</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009179788610960851</v>
+        <v>0.00905332522971492</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03883503638839</v>
+        <v>0.03979730580930651</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -2695,19 +2695,19 @@
         <v>10224</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4708</v>
+        <v>5343</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17441</v>
+        <v>18813</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02057833105382813</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.00947581326060975</v>
+        <v>0.01075327253875073</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03510416514126779</v>
+        <v>0.03786457554916839</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>17</v>
@@ -2716,19 +2716,19 @@
         <v>19789</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>11833</v>
+        <v>11956</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>30932</v>
+        <v>29466</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02030171317975001</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01213940151246551</v>
+        <v>0.01226557921479057</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03173306654659573</v>
+        <v>0.03022860927407859</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>401362</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>382540</v>
+        <v>382710</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>417343</v>
+        <v>417192</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8398127136561803</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8004295406919993</v>
+        <v>0.8007867512228567</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.873253181235225</v>
+        <v>0.8729372530407966</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>377</v>
@@ -2766,19 +2766,19 @@
         <v>433592</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>416676</v>
+        <v>414077</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>448396</v>
+        <v>447760</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8726828147858161</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.83863613235891</v>
+        <v>0.8334058560202602</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9024801556584763</v>
+        <v>0.9011988427260056</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>736</v>
@@ -2787,19 +2787,19 @@
         <v>834953</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>810879</v>
+        <v>807760</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>859154</v>
+        <v>858228</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8565669502318063</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8318696247672503</v>
+        <v>0.8286700962778389</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8813943504177998</v>
+        <v>0.8804447307647534</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>42518</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>31388</v>
+        <v>32388</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>56178</v>
+        <v>55099</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1282030114848751</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09464105501083336</v>
+        <v>0.09765609065628787</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1693884746798721</v>
+        <v>0.1661374703889736</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>46</v>
@@ -2912,19 +2912,19 @@
         <v>46100</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>36047</v>
+        <v>35566</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>61438</v>
+        <v>60033</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1220343947577838</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09542308966871743</v>
+        <v>0.09414838978783328</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1626370648041655</v>
+        <v>0.1589174202411342</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>88</v>
@@ -2933,19 +2933,19 @@
         <v>88618</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>71588</v>
+        <v>72053</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>105853</v>
+        <v>106089</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1249182162360985</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1009116529516639</v>
+        <v>0.1015679538772046</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1492121351507259</v>
+        <v>0.1495453363730915</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>7746</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3754</v>
+        <v>3809</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>14152</v>
+        <v>13635</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02335706285671901</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01131824194929751</v>
+        <v>0.01148624771125573</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04267106003272052</v>
+        <v>0.04111198274830623</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2983,19 +2983,19 @@
         <v>3823</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9397</v>
+        <v>8614</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01011927618258806</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.002567365537212483</v>
+        <v>0.002569442723291611</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02487428723055941</v>
+        <v>0.02280379560276014</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -3004,19 +3004,19 @@
         <v>11569</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6680</v>
+        <v>5821</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>20579</v>
+        <v>19742</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0163079267707415</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.009416965691985611</v>
+        <v>0.008204732411473075</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02900844785534924</v>
+        <v>0.02782876428278563</v>
       </c>
     </row>
     <row r="36">
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5942</v>
+        <v>4755</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.002879381729129512</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01791729156714694</v>
+        <v>0.01433612951320094</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -3054,19 +3054,19 @@
         <v>3062</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8310</v>
+        <v>8169</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.00810689687118391</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.002577986286376469</v>
+        <v>0.00256006565098058</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02199867709634372</v>
+        <v>0.02162476103034809</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4</v>
@@ -3075,19 +3075,19 @@
         <v>4017</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1015</v>
+        <v>997</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>10208</v>
+        <v>10044</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005663039340100093</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.001430063947210507</v>
+        <v>0.001405548433232418</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01438871097266423</v>
+        <v>0.01415881680134141</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>3049</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>957</v>
+        <v>191</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>8296</v>
+        <v>8256</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.009193310871916096</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.002884264056802184</v>
+        <v>0.0005757761189280209</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0250151686900883</v>
+        <v>0.0248922857831033</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -3125,19 +3125,19 @@
         <v>3685</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>10089</v>
+        <v>10665</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.009754941403420559</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.002624143301702122</v>
+        <v>0.002638191420718152</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02670823966101007</v>
+        <v>0.02823263659239653</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>6</v>
@@ -3146,19 +3146,19 @@
         <v>6734</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3005</v>
+        <v>2581</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>13838</v>
+        <v>14509</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.009492379752845524</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.004235263529088345</v>
+        <v>0.003638023275387272</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01950617273409886</v>
+        <v>0.02045227348020476</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>277380</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>262764</v>
+        <v>262921</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>290456</v>
+        <v>289619</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8363672330573603</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7922940899004811</v>
+        <v>0.7927682608523974</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.875792494730505</v>
+        <v>0.8732696173647643</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>298</v>
@@ -3196,19 +3196,19 @@
         <v>321092</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>305856</v>
+        <v>306412</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>333170</v>
+        <v>333148</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8499844907850237</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8096521316192141</v>
+        <v>0.8111240458230266</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8819586401586711</v>
+        <v>0.8818984699770372</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>567</v>
@@ -3217,19 +3217,19 @@
         <v>598472</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>578093</v>
+        <v>578908</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>617367</v>
+        <v>616167</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8436184379002144</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8148914472939596</v>
+        <v>0.8160398676863605</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8702528230062966</v>
+        <v>0.8685609097972302</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>43765</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>33374</v>
+        <v>33227</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>55208</v>
+        <v>55504</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1702937016999924</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1298596473704344</v>
+        <v>0.1292899904762244</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2148174146796442</v>
+        <v>0.215970981308266</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>56</v>
@@ -3342,19 +3342,19 @@
         <v>73077</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>55855</v>
+        <v>54588</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>91861</v>
+        <v>91366</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1837227846453227</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1404231400667483</v>
+        <v>0.1372383017189061</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2309458257956302</v>
+        <v>0.2297008898779667</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>108</v>
@@ -3363,19 +3363,19 @@
         <v>116843</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>98575</v>
+        <v>98286</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>138913</v>
+        <v>137525</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1784517487054334</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.150551687671897</v>
+        <v>0.1501113553874874</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2121588723902305</v>
+        <v>0.2100392773865367</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>3267</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>849</v>
+        <v>787</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8241</v>
+        <v>7741</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01271136286541313</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.003302410270777067</v>
+        <v>0.003062508938835696</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03206614883316728</v>
+        <v>0.03011938810692691</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>8528</v>
+        <v>9336</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.006083078836685532</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02144009626169049</v>
+        <v>0.02347090634557117</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>6</v>
@@ -3434,19 +3434,19 @@
         <v>5686</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2357</v>
+        <v>2282</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>12840</v>
+        <v>12510</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.008684739983425758</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.003599487776251395</v>
+        <v>0.003484952585641955</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01961016830804472</v>
+        <v>0.01910697996975587</v>
       </c>
     </row>
     <row r="42">
@@ -3476,19 +3476,19 @@
         <v>4557</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1206</v>
+        <v>1225</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>12727</v>
+        <v>13252</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01145749524636305</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.003032715510736973</v>
+        <v>0.003079185425254954</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03199743966475881</v>
+        <v>0.0333173629024584</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>4557</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1229</v>
+        <v>1238</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>13782</v>
+        <v>14217</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.006960325225852358</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.001877762221380752</v>
+        <v>0.00189071018248326</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02104953509004481</v>
+        <v>0.02171336119355271</v>
       </c>
     </row>
     <row r="43">
@@ -3526,19 +3526,19 @@
         <v>3501</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>7960</v>
+        <v>8786</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01362423693281182</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.003425267613115012</v>
+        <v>0.003435462764435564</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03097437114600955</v>
+        <v>0.03418537873448971</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>3</v>
@@ -3547,19 +3547,19 @@
         <v>4138</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1299</v>
+        <v>1265</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>12361</v>
+        <v>10009</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01040273667796033</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.003266730831043559</v>
+        <v>0.003181509864746448</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03107762058453003</v>
+        <v>0.02516318431755634</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>7</v>
@@ -3568,19 +3568,19 @@
         <v>7639</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>3181</v>
+        <v>3233</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>15610</v>
+        <v>16033</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01166720452679356</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.004858745129095534</v>
+        <v>0.004938039088888525</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02384139845158676</v>
+        <v>0.0244863129143141</v>
       </c>
     </row>
     <row r="44">
@@ -3597,19 +3597,19 @@
         <v>206465</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>194872</v>
+        <v>193654</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>217567</v>
+        <v>217436</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8033706985017827</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7582633780885781</v>
+        <v>0.7535230610949033</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8465721517833943</v>
+        <v>0.846059902071907</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>235</v>
@@ -3618,19 +3618,19 @@
         <v>313567</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>294844</v>
+        <v>293710</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>333346</v>
+        <v>332723</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7883339045936684</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7412640272094434</v>
+        <v>0.7384108252334948</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8380592292387865</v>
+        <v>0.8364938679834123</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>477</v>
@@ -3639,19 +3639,19 @@
         <v>520032</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>495814</v>
+        <v>495848</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>540997</v>
+        <v>539879</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.794235981558495</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7572484554956115</v>
+        <v>0.7573012700754865</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8262562022170313</v>
+        <v>0.8245493054321541</v>
       </c>
     </row>
     <row r="45">
@@ -3743,19 +3743,19 @@
         <v>475255</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>436578</v>
+        <v>430680</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>518145</v>
+        <v>517694</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1401634233139076</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1287569414017316</v>
+        <v>0.1270173447733508</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1528129039304072</v>
+        <v>0.1526798875362065</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>438</v>
@@ -3764,19 +3764,19 @@
         <v>455464</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>415591</v>
+        <v>415783</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>495076</v>
+        <v>495649</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1289095271850066</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1176241906321838</v>
+        <v>0.1176784391999797</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1401206929824123</v>
+        <v>0.1402829129618302</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>893</v>
@@ -3785,19 +3785,19 @@
         <v>930719</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>873192</v>
+        <v>875367</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>987087</v>
+        <v>986552</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1344206754782551</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1261122588481867</v>
+        <v>0.1264264565689951</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1425617360175419</v>
+        <v>0.1424844163824556</v>
       </c>
     </row>
     <row r="47">
@@ -3814,19 +3814,19 @@
         <v>64769</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>49549</v>
+        <v>49382</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>82070</v>
+        <v>81338</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01910171437433479</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01461306864211259</v>
+        <v>0.01456393147018574</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02420419058133317</v>
+        <v>0.02398852076223888</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>48</v>
@@ -3835,19 +3835,19 @@
         <v>48260</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>36127</v>
+        <v>34483</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>62727</v>
+        <v>62247</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01365899464963064</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0102248783443634</v>
+        <v>0.009759556824849826</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01775360232151287</v>
+        <v>0.01761758294925887</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>111</v>
@@ -3856,19 +3856,19 @@
         <v>113029</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>91955</v>
+        <v>92642</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>136988</v>
+        <v>133624</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01632435028983438</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01328075855974546</v>
+        <v>0.01338004998893881</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01978470371835078</v>
+        <v>0.01929894161067736</v>
       </c>
     </row>
     <row r="48">
@@ -3885,19 +3885,19 @@
         <v>70897</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>54880</v>
+        <v>55884</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>89804</v>
+        <v>89893</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02090919871915262</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01618538314450396</v>
+        <v>0.01648142140622845</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.02648536582652931</v>
+        <v>0.02651145254008364</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>53</v>
@@ -3906,19 +3906,19 @@
         <v>53772</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>40004</v>
+        <v>40366</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>70143</v>
+        <v>70390</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01521900003358924</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01132236425016896</v>
+        <v>0.01142469432970365</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.01985250900527226</v>
+        <v>0.01992248286467344</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>119</v>
@@ -3927,19 +3927,19 @@
         <v>124669</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>104503</v>
+        <v>103319</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>149294</v>
+        <v>151350</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.01800554865772782</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01509307293770774</v>
+        <v>0.01492202836751197</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.02156210767568518</v>
+        <v>0.02185902023578619</v>
       </c>
     </row>
     <row r="49">
@@ -3956,19 +3956,19 @@
         <v>82669</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>67283</v>
+        <v>64086</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>104025</v>
+        <v>101619</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02438093043273475</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01984331138510118</v>
+        <v>0.01890029734415693</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.03067932461385293</v>
+        <v>0.02996962074355628</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>67</v>
@@ -3977,19 +3977,19 @@
         <v>71177</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>54805</v>
+        <v>55629</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>88323</v>
+        <v>89397</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.0201450819480525</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01551141996902036</v>
+        <v>0.01574464906471879</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02499792580324435</v>
+        <v>0.02530199479172121</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>145</v>
@@ -3998,19 +3998,19 @@
         <v>153846</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>129635</v>
+        <v>131054</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>178368</v>
+        <v>180583</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02221942037089128</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01872280054769613</v>
+        <v>0.01892777192426605</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02576108111907192</v>
+        <v>0.02608102320916549</v>
       </c>
     </row>
     <row r="50">
@@ -4027,19 +4027,19 @@
         <v>2697129</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2649156</v>
+        <v>2643903</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>2742671</v>
+        <v>2743364</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.7954447331598703</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.7812965153872587</v>
+        <v>0.7797473295469479</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.808876316842323</v>
+        <v>0.8090806995556185</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2721</v>
@@ -4048,19 +4048,19 @@
         <v>2904536</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>2857531</v>
+        <v>2856820</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>2952907</v>
+        <v>2950393</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.822067396183721</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.808763586552512</v>
+        <v>0.8085625135052059</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.8357577598695347</v>
+        <v>0.8350463813130279</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>5287</v>
@@ -4069,19 +4069,19 @@
         <v>5601664</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>5532376</v>
+        <v>5536100</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>5667804</v>
+        <v>5659164</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.8090300052032914</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.7990229600956436</v>
+        <v>0.7995607903118324</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.818582363119055</v>
+        <v>0.8173345861261162</v>
       </c>
     </row>
     <row r="51">
